--- a/SQL_database - 20210708.xlsx
+++ b/SQL_database - 20210708.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sd/Documents/0-Coding/5-Final_GitHub_Projects/04 - SQL - Fleemarket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07381E9F-61CE-014C-82D7-7F356CCDDE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987B0A63-F3B5-134C-BD6F-B44A0209025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{8283A4E9-007D-D548-897D-26A62803636B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27200" windowHeight="13460" activeTab="1" xr2:uid="{8283A4E9-007D-D548-897D-26A62803636B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$AA$293</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="489">
   <si>
     <t>Box</t>
   </si>
@@ -308,16 +311,10 @@
     <t>basement</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>apartment</t>
   </si>
   <si>
     <t>garage</t>
-  </si>
-  <si>
-    <t>outside</t>
   </si>
   <si>
     <t>sales_id</t>
@@ -891,9 +888,6 @@
     <t>Gelbes Kleeblattuntersetzer</t>
   </si>
   <si>
-    <t>Schmuckkästchen</t>
-  </si>
-  <si>
     <t>Schmucktäschchen schwarz-weiss</t>
   </si>
   <si>
@@ -1029,9 +1023,6 @@
     <t>Merveilleux lustre avec trois ampoules (33 CHF)</t>
   </si>
   <si>
-    <t>Grosse Überdecke</t>
-  </si>
-  <si>
     <t>Matratzenschoner 1</t>
   </si>
   <si>
@@ -1257,12 +1248,6 @@
     <t>Braun Silk Epil</t>
   </si>
   <si>
-    <t xml:space="preserve">Handy </t>
-  </si>
-  <si>
-    <t>Nokia</t>
-  </si>
-  <si>
     <t>Bettrolle</t>
   </si>
   <si>
@@ -1411,6 +1396,138 @@
   </si>
   <si>
     <t>Necessaire 5</t>
+  </si>
+  <si>
+    <t>blanc</t>
+  </si>
+  <si>
+    <t>scharz mit Henkel</t>
+  </si>
+  <si>
+    <t>schwarz, einfach</t>
+  </si>
+  <si>
+    <t>rosa, mit vielen Taschen</t>
+  </si>
+  <si>
+    <t>Täschchen 1</t>
+  </si>
+  <si>
+    <t>Täschchen 2</t>
+  </si>
+  <si>
+    <t>Täschchen 3</t>
+  </si>
+  <si>
+    <t>Täschchen 4</t>
+  </si>
+  <si>
+    <t>Täschchen 5</t>
+  </si>
+  <si>
+    <t>Schmuckkästchen 1</t>
+  </si>
+  <si>
+    <t>Schmuckkästchen 2</t>
+  </si>
+  <si>
+    <t>Schmuckkästchen 3</t>
+  </si>
+  <si>
+    <t>Schmuckkästchen 4</t>
+  </si>
+  <si>
+    <t>rot, asiatisch</t>
+  </si>
+  <si>
+    <t>schwarz, aus Samt</t>
+  </si>
+  <si>
+    <t>Überdecke</t>
+  </si>
+  <si>
+    <t>Storage_ID</t>
+  </si>
+  <si>
+    <t>small_box</t>
+  </si>
+  <si>
+    <t>big_box</t>
+  </si>
+  <si>
+    <t>medium_box</t>
+  </si>
+  <si>
+    <t>BRAUN_box</t>
+  </si>
+  <si>
+    <t>ikea_bag</t>
+  </si>
+  <si>
+    <t>clothes_rack</t>
+  </si>
+  <si>
+    <t>storage_type</t>
+  </si>
+  <si>
+    <t>storage_location</t>
+  </si>
+  <si>
+    <t>no_container</t>
+  </si>
+  <si>
+    <t>80x200 cm</t>
+  </si>
+  <si>
+    <t>140x200cm</t>
+  </si>
+  <si>
+    <t>Korbsessel</t>
+  </si>
+  <si>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>chul-ho</t>
+  </si>
+  <si>
+    <t>famwoo</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>Ricky35</t>
+  </si>
+  <si>
+    <t>Cosinus</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Cerise</t>
+  </si>
+  <si>
+    <t>bonafin</t>
+  </si>
+  <si>
+    <t>Kamile N. Reis</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Dimitiris L.</t>
+  </si>
+  <si>
+    <t>M-Henri</t>
+  </si>
+  <si>
+    <t>Mara.bi</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1483,13 +1600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF4472C4"/>
       <name val="Arial"/>
@@ -1500,14 +1610,6 @@
       <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1521,8 +1623,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1532,6 +1640,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,7 +1689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1605,6 +1719,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1612,13 +1729,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2522,7 +2652,7 @@
   <dimension ref="B2:T34"/>
   <sheetViews>
     <sheetView topLeftCell="F6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3075,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D6662A-A684-3641-8EB4-09FFC6C58BA9}">
-  <dimension ref="A1:W292"/>
+  <dimension ref="A1:AH297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3087,63 +3217,97 @@
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="10" max="12" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="10.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="2.83203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" customWidth="1"/>
     <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="26" max="26" width="12.5" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="O1" s="24"/>
+      <c r="P1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="Y1" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="21">
+        <v>44355</v>
+      </c>
+      <c r="AE1">
+        <v>20</v>
+      </c>
+      <c r="AF1">
+        <v>3</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+      <c r="AH1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3151,7 +3315,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="13">
         <v>25</v>
@@ -3160,21 +3324,67 @@
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="G2" s="14">
+        <v>12</v>
+      </c>
       <c r="I2" s="12">
         <v>1</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="J2" s="21">
+        <v>44355</v>
+      </c>
+      <c r="K2" s="13">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>1</v>
+      </c>
       <c r="P2" s="12">
         <v>1</v>
       </c>
+      <c r="Q2" s="7" t="s">
+        <v>482</v>
+      </c>
       <c r="W2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>44368</v>
+      </c>
+      <c r="AE2">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3182,7 +3392,7 @@
         <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="13">
         <v>10</v>
@@ -3191,24 +3401,68 @@
         <v>3</v>
       </c>
       <c r="F3" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G3" s="14"/>
       <c r="I3" s="12">
         <v>2</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="J3" s="21">
+        <v>44368</v>
+      </c>
+      <c r="K3" s="13">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2</v>
+      </c>
       <c r="P3" s="12">
         <v>2</v>
       </c>
+      <c r="Q3" s="7" t="s">
+        <v>477</v>
+      </c>
       <c r="S3" s="12">
         <v>1</v>
       </c>
       <c r="T3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>44370</v>
+      </c>
+      <c r="AE3">
+        <v>15</v>
+      </c>
+      <c r="AF3">
+        <v>3</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3216,7 +3470,7 @@
         <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="13">
         <v>5</v>
@@ -3225,15 +3479,34 @@
         <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>7</v>
+      </c>
       <c r="I4" s="12">
         <v>3</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="J4" s="21">
+        <v>44370</v>
+      </c>
+      <c r="K4" s="13">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="12">
+        <v>3</v>
+      </c>
       <c r="P4" s="12">
         <v>3</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>476</v>
       </c>
       <c r="S4" s="12">
         <v>2</v>
@@ -3241,8 +3514,35 @@
       <c r="T4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y4" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>44371</v>
+      </c>
+      <c r="AE4">
+        <v>47</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3250,7 +3550,7 @@
         <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="13">
         <v>5</v>
@@ -3259,24 +3559,70 @@
         <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>4</v>
+      </c>
       <c r="I5" s="12">
         <v>4</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="J5" s="21">
+        <v>44371</v>
+      </c>
+      <c r="K5" s="13">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="12">
+        <v>4</v>
+      </c>
       <c r="P5" s="12">
         <v>4</v>
       </c>
+      <c r="Q5" s="7" t="s">
+        <v>474</v>
+      </c>
       <c r="S5" s="12">
         <v>3</v>
       </c>
       <c r="T5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y5" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>44375</v>
+      </c>
+      <c r="AE5">
+        <v>15</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3284,7 +3630,7 @@
         <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="13">
         <v>25</v>
@@ -3293,15 +3639,34 @@
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
       <c r="I6" s="12">
         <v>5</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="J6" s="21">
+        <v>44375</v>
+      </c>
+      <c r="K6" s="13">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="12">
+        <v>5</v>
+      </c>
       <c r="P6" s="12">
         <v>5</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="S6" s="12">
         <v>4</v>
@@ -3309,8 +3674,35 @@
       <c r="T6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y6" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>44375</v>
+      </c>
+      <c r="AE6">
+        <v>10</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3318,7 +3710,7 @@
         <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="13">
         <v>25</v>
@@ -3327,24 +3719,68 @@
         <v>3</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="14"/>
       <c r="I7" s="12">
         <v>6</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="J7" s="21">
+        <v>44375</v>
+      </c>
+      <c r="K7" s="13">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>6</v>
+      </c>
       <c r="P7" s="12">
         <v>6</v>
       </c>
+      <c r="Q7" s="7" t="s">
+        <v>478</v>
+      </c>
       <c r="S7" s="12">
         <v>5</v>
       </c>
       <c r="T7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y7" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>44375</v>
+      </c>
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3352,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="13">
         <v>10</v>
@@ -3361,19 +3797,63 @@
         <v>3</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="14"/>
       <c r="I8" s="12">
         <v>7</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="J8" s="21">
+        <v>44375</v>
+      </c>
+      <c r="K8" s="13">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="12">
+        <v>7</v>
+      </c>
       <c r="P8" s="12">
         <v>7</v>
       </c>
+      <c r="Q8" s="7" t="s">
+        <v>475</v>
+      </c>
       <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y8" s="12">
+        <v>7</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="21">
+        <v>44378</v>
+      </c>
+      <c r="AE8">
+        <v>5</v>
+      </c>
+      <c r="AF8">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3381,7 +3861,7 @@
         <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="13">
         <v>25</v>
@@ -3390,19 +3870,63 @@
         <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="14"/>
       <c r="I9" s="12">
         <v>8</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="J9" s="21">
+        <v>44378</v>
+      </c>
+      <c r="K9" s="13">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>8</v>
+      </c>
       <c r="P9" s="12">
         <v>8</v>
       </c>
+      <c r="Q9" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y9" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>44382</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3410,7 +3934,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="13">
         <v>15</v>
@@ -3419,24 +3943,68 @@
         <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="12">
         <v>9</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="J10" s="21">
+        <v>44382</v>
+      </c>
+      <c r="K10" s="13">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>9</v>
+      </c>
       <c r="P10" s="12">
         <v>9</v>
       </c>
+      <c r="Q10" s="7" t="s">
+        <v>479</v>
+      </c>
       <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y10" s="12">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>44384</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>3</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="13">
         <v>40</v>
@@ -3445,32 +4013,76 @@
         <v>3</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="14"/>
       <c r="I11" s="12">
         <v>10</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="J11" s="21">
+        <v>44384</v>
+      </c>
+      <c r="K11" s="13">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12">
+        <v>10</v>
+      </c>
       <c r="P11" s="12">
         <v>10</v>
       </c>
+      <c r="Q11" s="7" t="s">
+        <v>481</v>
+      </c>
       <c r="S11" s="12">
         <v>1</v>
       </c>
       <c r="T11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y11" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC11">
+        <v>11</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>44389</v>
+      </c>
+      <c r="AE11">
+        <v>30</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="13">
         <v>5</v>
@@ -3485,26 +4097,70 @@
       <c r="I12" s="12">
         <v>11</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="J12" s="21">
+        <v>44389</v>
+      </c>
+      <c r="K12" s="13">
+        <v>30</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>11</v>
+      </c>
       <c r="P12" s="12">
         <v>11</v>
       </c>
+      <c r="Q12" s="7" t="s">
+        <v>484</v>
+      </c>
       <c r="S12" s="12">
         <v>2</v>
       </c>
       <c r="T12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y12" s="12">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC12">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="21">
+        <v>44390</v>
+      </c>
+      <c r="AE12">
+        <v>25</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="13">
         <v>5</v>
@@ -3519,26 +4175,70 @@
       <c r="I13" s="12">
         <v>12</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="J13" s="21">
+        <v>44390</v>
+      </c>
+      <c r="K13" s="13">
+        <v>25</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12">
+        <v>12</v>
+      </c>
       <c r="P13" s="12">
         <v>12</v>
       </c>
+      <c r="Q13" s="7" t="s">
+        <v>485</v>
+      </c>
       <c r="S13" s="12">
         <v>3</v>
       </c>
       <c r="T13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y13" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC13">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>44392</v>
+      </c>
+      <c r="AE13">
+        <v>50</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="13">
         <v>5</v>
@@ -3553,21 +4253,65 @@
       <c r="I14" s="12">
         <v>13</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="J14" s="21">
+        <v>44392</v>
+      </c>
+      <c r="K14" s="13">
+        <v>50</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12">
+        <v>13</v>
+      </c>
       <c r="P14" s="12">
         <v>13</v>
       </c>
+      <c r="Q14" s="7" t="s">
+        <v>488</v>
+      </c>
       <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="12">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC14">
+        <v>14</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>44392</v>
+      </c>
+      <c r="AE14">
+        <v>15</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="13">
         <v>5</v>
@@ -3582,18 +4326,62 @@
       <c r="I15" s="12">
         <v>14</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="J15" s="21">
+        <v>44392</v>
+      </c>
+      <c r="K15" s="13">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
       <c r="P15" s="12">
         <v>14</v>
       </c>
+      <c r="Q15" s="7" t="s">
+        <v>486</v>
+      </c>
       <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y15" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC15">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="21">
+        <v>44393</v>
+      </c>
+      <c r="AE15">
+        <v>30</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="13">
         <v>5</v>
@@ -3608,23 +4396,67 @@
       <c r="I16" s="12">
         <v>15</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="J16" s="21">
+        <v>44393</v>
+      </c>
+      <c r="K16" s="13">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+      <c r="N16" s="12">
+        <v>15</v>
+      </c>
       <c r="P16" s="12">
         <v>15</v>
       </c>
+      <c r="Q16" s="7" t="s">
+        <v>487</v>
+      </c>
       <c r="S16" s="12">
         <v>1</v>
       </c>
       <c r="T16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Y16" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC16">
+        <v>16</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>44393</v>
+      </c>
+      <c r="AE16">
+        <v>20</v>
+      </c>
+      <c r="AF16">
+        <v>3</v>
+      </c>
+      <c r="AG16">
+        <v>2</v>
+      </c>
+      <c r="AH16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="13">
         <v>5</v>
@@ -3639,7 +4471,11 @@
       <c r="I17" s="12">
         <v>16</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="12"/>
       <c r="P17" s="12">
         <v>16</v>
       </c>
@@ -3649,13 +4485,40 @@
       <c r="T17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Y17" s="12">
+        <v>16</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC17">
+        <v>17</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>44393</v>
+      </c>
+      <c r="AE17">
+        <v>5</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="13">
         <v>5</v>
@@ -3670,91 +4533,159 @@
       <c r="I18" s="12">
         <v>17</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="12"/>
       <c r="P18" s="12">
         <v>17</v>
       </c>
       <c r="S18" s="12"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Y18" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC18">
+        <v>18</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>44393</v>
+      </c>
+      <c r="AE18">
+        <v>20</v>
+      </c>
+      <c r="AF18">
+        <v>3</v>
+      </c>
+      <c r="AG18">
+        <v>2</v>
+      </c>
+      <c r="AH18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>108</v>
+      <c r="B19" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="13">
         <v>25</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="14">
+        <v>13</v>
+      </c>
       <c r="I19" s="12">
         <v>18</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="12"/>
       <c r="P19" s="12">
         <v>18</v>
       </c>
-      <c r="S19" s="12">
-        <v>1</v>
-      </c>
-      <c r="T19" t="s">
-        <v>89</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="Y19" s="12">
+        <v>18</v>
+      </c>
+      <c r="Z19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AA19" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC19">
+        <v>19</v>
+      </c>
+      <c r="AD19" s="21">
+        <v>44396</v>
+      </c>
+      <c r="AE19">
+        <v>19</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>107</v>
+      <c r="B20" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="13">
         <v>25</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="14">
+        <v>13</v>
+      </c>
       <c r="I20" s="12">
         <v>19</v>
       </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="12"/>
       <c r="P20" s="12">
         <v>19</v>
       </c>
-      <c r="S20" s="12">
-        <v>2</v>
-      </c>
-      <c r="T20" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="Y20" s="12">
+        <v>19</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" s="13">
         <v>10</v>
@@ -3769,25 +4700,33 @@
       <c r="I21" s="12">
         <v>20</v>
       </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="12"/>
       <c r="P21" s="12">
         <v>20</v>
       </c>
-      <c r="S21" s="12">
-        <v>3</v>
-      </c>
-      <c r="T21" t="s">
-        <v>92</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="Y21" s="12">
+        <v>20</v>
+      </c>
+      <c r="Z21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AA21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="13">
         <v>10</v>
@@ -3802,25 +4741,33 @@
       <c r="I22" s="12">
         <v>21</v>
       </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="12"/>
       <c r="P22" s="12">
         <v>21</v>
       </c>
-      <c r="S22" s="12">
-        <v>4</v>
-      </c>
-      <c r="T22" t="s">
-        <v>89</v>
-      </c>
-      <c r="U22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="Y22" s="12">
+        <v>21</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="13">
         <v>3</v>
@@ -3835,25 +4782,33 @@
       <c r="I23" s="12">
         <v>22</v>
       </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="12"/>
       <c r="P23" s="12">
         <v>22</v>
       </c>
-      <c r="S23" s="12">
-        <v>5</v>
-      </c>
-      <c r="T23" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="Y23" s="12">
+        <v>22</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" s="13">
         <v>3</v>
@@ -3868,28 +4823,36 @@
       <c r="I24" s="12">
         <v>23</v>
       </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="12"/>
       <c r="P24" s="12">
         <v>23</v>
       </c>
-      <c r="S24" s="12">
-        <v>6</v>
-      </c>
-      <c r="T24" t="s">
-        <v>92</v>
-      </c>
-      <c r="U24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="Y24" s="12">
+        <v>23</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D25" s="13">
         <v>3</v>
@@ -3904,17 +4867,31 @@
       <c r="I25" s="12">
         <v>24</v>
       </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="12"/>
       <c r="P25" s="12">
         <v>24</v>
       </c>
       <c r="S25" s="12"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Y25" s="12">
+        <v>24</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D26" s="13">
         <v>3</v>
@@ -3929,16 +4906,30 @@
       <c r="I26" s="12">
         <v>25</v>
       </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="12"/>
       <c r="P26" s="12">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Y26" s="12">
+        <v>25</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" s="13">
         <v>3</v>
@@ -3950,13 +4941,27 @@
         <v>6</v>
       </c>
       <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J27" s="21"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="12"/>
+      <c r="Y27" s="12">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="13">
         <v>3</v>
@@ -3969,12 +4974,12 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" s="13">
         <v>2</v>
@@ -3987,12 +4992,12 @@
       </c>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="13">
         <v>2</v>
@@ -4005,12 +5010,12 @@
       </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D31" s="13">
         <v>2</v>
@@ -4023,12 +5028,12 @@
       </c>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" s="13">
         <v>2</v>
@@ -4046,7 +5051,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D33" s="13">
         <v>2</v>
@@ -4064,7 +5069,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" s="13">
         <v>2</v>
@@ -4082,7 +5087,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D35" s="13">
         <v>2</v>
@@ -4100,7 +5105,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D36" s="13">
         <v>2</v>
@@ -4118,7 +5123,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37" s="13">
         <v>2</v>
@@ -4136,7 +5141,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" s="13">
         <v>2</v>
@@ -4154,7 +5159,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -4172,7 +5177,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -4190,7 +5195,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -4208,7 +5213,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -4226,7 +5231,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
@@ -4244,7 +5249,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" s="13">
         <v>2</v>
@@ -4262,7 +5267,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="13">
         <v>2</v>
@@ -4280,7 +5285,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="13">
         <v>5</v>
@@ -4298,7 +5303,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="13">
         <v>5</v>
@@ -4316,7 +5321,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="13">
         <v>5</v>
@@ -4334,7 +5339,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="13">
         <v>30</v>
@@ -4352,7 +5357,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="13">
         <v>0.5</v>
@@ -4370,7 +5375,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="13">
         <v>0.5</v>
@@ -4388,7 +5393,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="13">
         <v>0.5</v>
@@ -4406,7 +5411,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="13">
         <v>0.5</v>
@@ -4424,7 +5429,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="13">
         <v>0.5</v>
@@ -4442,7 +5447,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D55" s="13">
         <v>1</v>
@@ -4460,7 +5465,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -4478,7 +5483,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D57" s="13">
         <v>1</v>
@@ -4496,7 +5501,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D58" s="13">
         <v>2</v>
@@ -4514,7 +5519,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D59" s="13">
         <v>2</v>
@@ -4532,7 +5537,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D60" s="13">
         <v>2</v>
@@ -4550,7 +5555,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D61" s="13">
         <v>2</v>
@@ -4568,7 +5573,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D62" s="13">
         <v>0.5</v>
@@ -4586,7 +5591,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D63" s="13">
         <v>0.5</v>
@@ -4604,7 +5609,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D64" s="13">
         <v>3</v>
@@ -4622,7 +5627,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D65" s="13">
         <v>2</v>
@@ -4640,7 +5645,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D66" s="13">
         <v>2</v>
@@ -4658,7 +5663,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D67" s="13">
         <v>2</v>
@@ -4671,7 +5676,7 @@
       </c>
       <c r="G67" s="14"/>
       <c r="T67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
@@ -4679,7 +5684,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D68" s="13">
         <v>4</v>
@@ -4692,7 +5697,7 @@
       </c>
       <c r="G68" s="14"/>
       <c r="T68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -4700,7 +5705,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D69" s="13">
         <v>4</v>
@@ -4713,7 +5718,7 @@
       </c>
       <c r="G69" s="14"/>
       <c r="T69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -4721,7 +5726,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D70" s="13">
         <v>4</v>
@@ -4734,7 +5739,7 @@
       </c>
       <c r="G70" s="14"/>
       <c r="T70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -4742,7 +5747,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D71" s="13">
         <v>2</v>
@@ -4755,7 +5760,7 @@
       </c>
       <c r="G71" s="14"/>
       <c r="T71" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -4763,7 +5768,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D72" s="13">
         <v>5</v>
@@ -4781,7 +5786,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D73" s="13">
         <v>2</v>
@@ -4799,7 +5804,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D74" s="13">
         <v>2</v>
@@ -4817,7 +5822,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D75" s="13">
         <v>3</v>
@@ -4835,7 +5840,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D76" s="13">
         <v>2</v>
@@ -4853,7 +5858,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D77" s="13">
         <v>5</v>
@@ -4871,7 +5876,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D78" s="13">
         <v>5</v>
@@ -4889,7 +5894,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D79" s="13">
         <v>5</v>
@@ -4907,7 +5912,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D80" s="13">
         <v>5</v>
@@ -4925,7 +5930,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D81" s="13">
         <v>5</v>
@@ -4943,7 +5948,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D82" s="13">
         <v>5</v>
@@ -4961,7 +5966,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D83" s="13">
         <v>5</v>
@@ -4979,7 +5984,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D84" s="13">
         <v>10</v>
@@ -4997,7 +6002,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D85" s="13">
         <v>5</v>
@@ -5015,7 +6020,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D86" s="13">
         <v>5</v>
@@ -5033,7 +6038,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D87" s="13">
         <v>3</v>
@@ -5051,7 +6056,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D88" s="13">
         <v>5</v>
@@ -5062,14 +6067,16 @@
       <c r="F88" s="3">
         <v>9</v>
       </c>
-      <c r="G88" s="14"/>
+      <c r="G88" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>195</v>
+      <c r="B89" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="D89" s="13">
         <v>5</v>
@@ -5080,14 +6087,16 @@
       <c r="F89" s="3">
         <v>10</v>
       </c>
-      <c r="G89" s="14"/>
+      <c r="G89" s="14">
+        <v>7</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D90" s="13">
         <v>5</v>
@@ -5105,7 +6114,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D91" s="13">
         <v>5</v>
@@ -5122,8 +6131,8 @@
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>235</v>
+      <c r="B92" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="D92" s="13">
         <v>10</v>
@@ -5134,14 +6143,16 @@
       <c r="F92" s="3">
         <v>10</v>
       </c>
-      <c r="G92" s="14"/>
+      <c r="G92" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D93" s="13">
         <v>10</v>
@@ -5159,7 +6170,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D94" s="13">
         <v>10</v>
@@ -5170,14 +6181,16 @@
       <c r="F94" s="3">
         <v>11</v>
       </c>
-      <c r="G94" s="14"/>
+      <c r="G94" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D95" s="13">
         <v>45</v>
@@ -5195,7 +6208,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D96" s="13">
         <v>15</v>
@@ -5206,14 +6219,16 @@
       <c r="F96" s="3">
         <v>11</v>
       </c>
-      <c r="G96" s="14"/>
+      <c r="G96" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D97" s="13">
         <v>7</v>
@@ -5231,7 +6246,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D98" s="13">
         <v>15</v>
@@ -5242,17 +6257,19 @@
       <c r="F98" s="3">
         <v>11</v>
       </c>
-      <c r="G98" s="14"/>
+      <c r="G98" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D99" s="13">
         <v>10</v>
@@ -5270,7 +6287,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D100" s="13">
         <v>3</v>
@@ -5288,7 +6305,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D101" s="13">
         <v>12</v>
@@ -5306,7 +6323,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D102" s="13">
         <v>3</v>
@@ -5324,7 +6341,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D103" s="13">
         <v>2</v>
@@ -5342,7 +6359,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D104" s="13">
         <v>5</v>
@@ -5353,14 +6370,16 @@
       <c r="F104" s="3">
         <v>12</v>
       </c>
-      <c r="G104" s="14"/>
+      <c r="G104" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D105" s="13">
         <v>3</v>
@@ -5379,7 +6398,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D106" s="13">
         <v>2</v>
@@ -5397,7 +6416,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D107" s="13">
         <v>2</v>
@@ -5415,7 +6434,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D108" s="13">
         <v>5</v>
@@ -5433,7 +6452,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D109" s="13">
         <v>3</v>
@@ -5451,7 +6470,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D110" s="13">
         <v>3</v>
@@ -5469,7 +6488,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D111" s="13">
         <v>3</v>
@@ -5487,7 +6506,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D112" s="13">
         <v>3</v>
@@ -5505,7 +6524,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D113" s="13">
         <v>5</v>
@@ -5523,7 +6542,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D114" s="13">
         <v>3</v>
@@ -5541,7 +6560,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D115" s="13">
         <v>10</v>
@@ -5552,14 +6571,16 @@
       <c r="F115" s="3">
         <v>12</v>
       </c>
-      <c r="G115" s="14"/>
+      <c r="G115" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D116" s="13">
         <v>4</v>
@@ -5577,7 +6598,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D117" s="13">
         <v>3</v>
@@ -5588,14 +6609,16 @@
       <c r="F117" s="3">
         <v>12</v>
       </c>
-      <c r="G117" s="14"/>
+      <c r="G117" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D118" s="13">
         <v>5</v>
@@ -5606,14 +6629,16 @@
       <c r="F118" s="3">
         <v>12</v>
       </c>
-      <c r="G118" s="14"/>
+      <c r="G118" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D119" s="13">
         <v>5</v>
@@ -5631,7 +6656,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D120" s="13">
         <v>5</v>
@@ -5649,7 +6674,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D121" s="13">
         <v>2</v>
@@ -5667,7 +6692,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D122" s="13">
         <v>5</v>
@@ -5685,7 +6710,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D123" s="13">
         <v>2</v>
@@ -5703,7 +6728,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D124" s="13">
         <v>3</v>
@@ -5721,7 +6746,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D125" s="13">
         <v>2</v>
@@ -5739,7 +6764,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D126" s="13">
         <v>15</v>
@@ -5757,7 +6782,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D127" s="13">
         <v>4</v>
@@ -5775,7 +6800,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D128" s="13">
         <v>5</v>
@@ -5793,7 +6818,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D129" s="13">
         <v>4</v>
@@ -5811,7 +6836,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D130" s="13">
         <v>5</v>
@@ -5829,7 +6854,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D131" s="13">
         <v>5</v>
@@ -5847,7 +6872,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D132" s="13">
         <v>3</v>
@@ -5865,7 +6890,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D133" s="13">
         <v>5</v>
@@ -5883,7 +6908,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D134" s="13">
         <v>3</v>
@@ -5901,7 +6926,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D135" s="13">
         <v>5</v>
@@ -5919,7 +6944,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D136" s="13">
         <v>5</v>
@@ -5937,7 +6962,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D137" s="13">
         <v>5</v>
@@ -5955,7 +6980,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D138" s="13">
         <v>5</v>
@@ -5973,7 +6998,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D139" s="13">
         <v>5</v>
@@ -5991,7 +7016,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D140" s="13">
         <v>3</v>
@@ -6009,7 +7034,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="D141" s="13">
+        <v>55</v>
       </c>
       <c r="E141" s="3">
         <v>3</v>
@@ -6017,13 +7045,14 @@
       <c r="F141" s="3">
         <v>14</v>
       </c>
+      <c r="G141" s="14"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D142" s="13">
         <v>3</v>
@@ -6034,13 +7063,14 @@
       <c r="F142" s="3">
         <v>14</v>
       </c>
+      <c r="G142" s="14"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>142</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D143" s="13">
         <v>6</v>
@@ -6051,13 +7081,14 @@
       <c r="F143" s="3">
         <v>14</v>
       </c>
+      <c r="G143" s="14"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>143</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D144" s="13">
         <v>5</v>
@@ -6068,13 +7099,14 @@
       <c r="F144" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144" s="14"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D145" s="13">
         <v>2</v>
@@ -6085,13 +7117,14 @@
       <c r="F145" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145" s="14"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D146" s="13">
         <v>4</v>
@@ -6102,13 +7135,14 @@
       <c r="F146" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146" s="14"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D147" s="13">
         <v>5</v>
@@ -6119,13 +7153,14 @@
       <c r="F147" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147" s="14"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D148" s="13">
         <v>3</v>
@@ -6136,13 +7171,14 @@
       <c r="F148" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148" s="14"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D149" s="13">
         <v>5</v>
@@ -6153,13 +7189,14 @@
       <c r="F149" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149" s="14"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D150" s="13">
         <v>3</v>
@@ -6170,13 +7207,14 @@
       <c r="F150" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150" s="14"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D151" s="13">
         <v>5</v>
@@ -6187,16 +7225,17 @@
       <c r="F151" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" s="14"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>151</v>
       </c>
       <c r="B152" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C152" t="s">
         <v>329</v>
-      </c>
-      <c r="C152" t="s">
-        <v>333</v>
       </c>
       <c r="D152" s="13">
         <v>2</v>
@@ -6207,16 +7246,17 @@
       <c r="F152" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152" s="14"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
       <c r="B153" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C153" t="s">
         <v>330</v>
-      </c>
-      <c r="C153" t="s">
-        <v>334</v>
       </c>
       <c r="D153" s="13">
         <v>2</v>
@@ -6227,16 +7267,17 @@
       <c r="F153" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153" s="14"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>153</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C154" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D154" s="13">
         <v>10</v>
@@ -6247,16 +7288,17 @@
       <c r="F154" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154" s="14"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>154</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C155" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D155" s="13">
         <v>5</v>
@@ -6267,16 +7309,17 @@
       <c r="F155" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155" s="14"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>155</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C156" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D156" s="13">
         <v>3</v>
@@ -6287,13 +7330,14 @@
       <c r="F156" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156" s="14"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>156</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D157" s="13">
         <v>2</v>
@@ -6304,13 +7348,14 @@
       <c r="F157" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157" s="14"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>157</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D158" s="13">
         <v>4</v>
@@ -6321,13 +7366,14 @@
       <c r="F158" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D159" s="13">
         <v>4</v>
@@ -6338,13 +7384,16 @@
       <c r="F159" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>159</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D160" s="13">
         <v>5</v>
@@ -6355,13 +7404,14 @@
       <c r="F160" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160" s="14"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>160</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D161" s="13">
         <v>5</v>
@@ -6372,13 +7422,14 @@
       <c r="F161" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G161" s="14"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>161</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D162" s="13">
         <v>5</v>
@@ -6389,13 +7440,14 @@
       <c r="F162" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162" s="14"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>162</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D163" s="13">
         <v>10</v>
@@ -6406,13 +7458,14 @@
       <c r="F163" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163" s="14"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>163</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D164" s="13">
         <v>20</v>
@@ -6423,16 +7476,17 @@
       <c r="F164" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164" s="14"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>164</v>
       </c>
       <c r="B165" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C165" t="s">
         <v>339</v>
-      </c>
-      <c r="C165" t="s">
-        <v>343</v>
       </c>
       <c r="D165" s="13">
         <v>5</v>
@@ -6443,16 +7497,17 @@
       <c r="F165" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165" s="14"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>165</v>
       </c>
       <c r="B166" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C166" t="s">
         <v>340</v>
-      </c>
-      <c r="C166" t="s">
-        <v>344</v>
       </c>
       <c r="D166" s="13">
         <v>5</v>
@@ -6463,16 +7518,17 @@
       <c r="F166" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G166" s="14"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>166</v>
       </c>
       <c r="B167" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C167" t="s">
         <v>341</v>
-      </c>
-      <c r="C167" t="s">
-        <v>345</v>
       </c>
       <c r="D167" s="13">
         <v>5</v>
@@ -6483,16 +7539,17 @@
       <c r="F167" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G167" s="14"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>167</v>
       </c>
       <c r="B168" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168" t="s">
         <v>342</v>
-      </c>
-      <c r="C168" t="s">
-        <v>346</v>
       </c>
       <c r="D168" s="13">
         <v>5</v>
@@ -6503,13 +7560,14 @@
       <c r="F168" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G168" s="14"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>168</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D169" s="13">
         <v>15</v>
@@ -6520,13 +7578,14 @@
       <c r="F169" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G169" s="14"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>169</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D170" s="13">
         <v>5</v>
@@ -6537,13 +7596,14 @@
       <c r="F170" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G170" s="14"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>170</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D171" s="13">
         <v>10</v>
@@ -6554,13 +7614,14 @@
       <c r="F171" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G171" s="14"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>171</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D172" s="13">
         <v>10</v>
@@ -6571,13 +7632,14 @@
       <c r="F172" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G172" s="14"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>172</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D173" s="13">
         <v>10</v>
@@ -6588,15 +7650,16 @@
       <c r="F173" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G173" s="14"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>173</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D174">
+        <v>273</v>
+      </c>
+      <c r="D174" s="13">
         <v>3</v>
       </c>
       <c r="E174" s="3">
@@ -6605,13 +7668,14 @@
       <c r="F174" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G174" s="14"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>174</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D175" s="13">
         <v>3</v>
@@ -6622,13 +7686,14 @@
       <c r="F175" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G175" s="14"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>175</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D176" s="13">
         <v>10</v>
@@ -6639,13 +7704,20 @@
       <c r="F176" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G176" s="14"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>176</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>277</v>
+        <v>454</v>
+      </c>
+      <c r="C177" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177" s="13">
+        <v>5</v>
       </c>
       <c r="E177" s="3">
         <v>3</v>
@@ -6653,30 +7725,41 @@
       <c r="F177" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G177" s="14"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>177</v>
       </c>
+      <c r="B178" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C178" t="s">
+        <v>117</v>
+      </c>
+      <c r="D178" s="13">
+        <v>5</v>
+      </c>
       <c r="E178" s="3">
         <v>3</v>
       </c>
       <c r="F178" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G178" s="14"/>
+    </row>
+    <row r="179" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>178</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>441</v>
+        <v>456</v>
+      </c>
+      <c r="C179" t="s">
+        <v>458</v>
       </c>
       <c r="D179" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E179" s="3">
         <v>3</v>
@@ -6684,19 +7767,21 @@
       <c r="F179" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G179" s="14"/>
+      <c r="P179" s="19"/>
+    </row>
+    <row r="180" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>179</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>442</v>
+        <v>457</v>
+      </c>
+      <c r="C180" t="s">
+        <v>459</v>
       </c>
       <c r="D180" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E180" s="3">
         <v>3</v>
@@ -6704,19 +7789,21 @@
       <c r="F180" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G180" s="14"/>
+      <c r="P180" s="19"/>
+    </row>
+    <row r="181" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>180</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="C181" t="s">
+        <v>445</v>
       </c>
       <c r="D181" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E181" s="3">
         <v>3</v>
@@ -6724,19 +7811,21 @@
       <c r="F181" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G181" s="14"/>
+      <c r="P181" s="19"/>
+    </row>
+    <row r="182" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>181</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>444</v>
+        <v>441</v>
+      </c>
+      <c r="C182" t="s">
+        <v>445</v>
       </c>
       <c r="D182" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E182" s="3">
         <v>3</v>
@@ -6744,19 +7833,21 @@
       <c r="F182" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G182" s="14"/>
+      <c r="P182" s="19"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>182</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>445</v>
+        <v>442</v>
+      </c>
+      <c r="C183" t="s">
+        <v>446</v>
       </c>
       <c r="D183" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E183" s="3">
         <v>3</v>
@@ -6764,16 +7855,20 @@
       <c r="F183" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G183" s="14"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>183</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D184">
-        <v>15</v>
+        <v>443</v>
+      </c>
+      <c r="C184" t="s">
+        <v>447</v>
+      </c>
+      <c r="D184" s="13">
+        <v>4</v>
       </c>
       <c r="E184" s="3">
         <v>3</v>
@@ -6781,16 +7876,20 @@
       <c r="F184" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G184" s="14"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>184</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D185">
-        <v>120</v>
+        <v>444</v>
+      </c>
+      <c r="C185" t="s">
+        <v>448</v>
+      </c>
+      <c r="D185" s="13">
+        <v>10</v>
       </c>
       <c r="E185" s="3">
         <v>3</v>
@@ -6798,15 +7897,19 @@
       <c r="F185" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G185" s="14"/>
+    </row>
+    <row r="186" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>185</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D186">
+        <v>449</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="D186" s="13">
         <v>5</v>
       </c>
       <c r="E186" s="3">
@@ -6815,16 +7918,20 @@
       <c r="F186" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G186" s="14"/>
+    </row>
+    <row r="187" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>186</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D187">
-        <v>3</v>
+        <v>450</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D187" s="13">
+        <v>4</v>
       </c>
       <c r="E187" s="3">
         <v>3</v>
@@ -6832,16 +7939,20 @@
       <c r="F187" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G187" s="14"/>
+    </row>
+    <row r="188" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>187</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D188">
-        <v>3</v>
+        <v>451</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D188" s="13">
+        <v>4</v>
       </c>
       <c r="E188" s="3">
         <v>3</v>
@@ -6849,16 +7960,20 @@
       <c r="F188" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G188" s="14"/>
+    </row>
+    <row r="189" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>188</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D189">
-        <v>5</v>
+        <v>452</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D189" s="13">
+        <v>3</v>
       </c>
       <c r="E189" s="3">
         <v>3</v>
@@ -6866,16 +7981,20 @@
       <c r="F189" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G189" s="14"/>
+    </row>
+    <row r="190" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>189</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D190">
-        <v>20</v>
+        <v>453</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="D190" s="13">
+        <v>4</v>
       </c>
       <c r="E190" s="3">
         <v>3</v>
@@ -6883,387 +8002,411 @@
       <c r="F190" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G190" s="14"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>190</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D191">
-        <v>25</v>
+        <v>275</v>
+      </c>
+      <c r="D191" s="13">
+        <v>15</v>
       </c>
       <c r="E191" s="3">
         <v>3</v>
       </c>
       <c r="F191" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G191" s="14"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>191</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D192">
-        <v>10</v>
+        <v>276</v>
+      </c>
+      <c r="D192" s="13">
+        <v>120</v>
       </c>
       <c r="E192" s="3">
         <v>3</v>
       </c>
       <c r="F192" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G192" s="14"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>192</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D193">
-        <v>3</v>
+        <v>277</v>
+      </c>
+      <c r="D193" s="13">
+        <v>5</v>
       </c>
       <c r="E193" s="3">
         <v>3</v>
       </c>
       <c r="F193" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G193" s="14"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>193</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C194" t="s">
-        <v>348</v>
-      </c>
-      <c r="D194">
-        <v>15</v>
+        <v>278</v>
+      </c>
+      <c r="D194" s="13">
+        <v>3</v>
       </c>
       <c r="E194" s="3">
         <v>3</v>
       </c>
       <c r="F194" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G194" s="14"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>194</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C195" t="s">
-        <v>349</v>
-      </c>
-      <c r="D195">
-        <v>10</v>
+        <v>279</v>
+      </c>
+      <c r="D195" s="13">
+        <v>3</v>
       </c>
       <c r="E195" s="3">
         <v>3</v>
       </c>
       <c r="F195" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G195" s="14"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>195</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C196" t="s">
-        <v>350</v>
-      </c>
-      <c r="D196">
-        <v>15</v>
+        <v>280</v>
+      </c>
+      <c r="D196" s="13">
+        <v>5</v>
       </c>
       <c r="E196" s="3">
         <v>3</v>
       </c>
       <c r="F196" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G196" s="14"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>196</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C197" t="s">
-        <v>351</v>
-      </c>
-      <c r="D197">
-        <v>15</v>
+        <v>281</v>
+      </c>
+      <c r="D197" s="13">
+        <v>20</v>
       </c>
       <c r="E197" s="3">
         <v>3</v>
       </c>
       <c r="F197" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G197" s="14"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>197</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C198" t="s">
-        <v>428</v>
-      </c>
-      <c r="D198">
+        <v>282</v>
+      </c>
+      <c r="D198" s="13">
         <v>25</v>
       </c>
       <c r="E198" s="3">
         <v>3</v>
       </c>
       <c r="F198" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G198" s="14"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>198</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D199">
+        <v>283</v>
+      </c>
+      <c r="D199" s="13">
+        <v>10</v>
+      </c>
+      <c r="E199" s="3">
+        <v>3</v>
+      </c>
+      <c r="F199" s="3">
         <v>17</v>
       </c>
-      <c r="E199" s="3">
-        <v>3</v>
-      </c>
-      <c r="F199" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199" s="14"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>199</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D200" s="17">
-        <v>7</v>
+        <v>284</v>
+      </c>
+      <c r="D200" s="13">
+        <v>3</v>
       </c>
       <c r="E200" s="3">
         <v>3</v>
       </c>
       <c r="F200" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G200" s="14"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>200</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D201">
-        <v>10</v>
+        <v>285</v>
+      </c>
+      <c r="C201" t="s">
+        <v>344</v>
+      </c>
+      <c r="D201" s="13">
+        <v>15</v>
       </c>
       <c r="E201" s="3">
         <v>3</v>
       </c>
       <c r="F201" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G201" s="14"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>201</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D202">
-        <v>45</v>
+        <v>286</v>
+      </c>
+      <c r="C202" t="s">
+        <v>345</v>
+      </c>
+      <c r="D202" s="13">
+        <v>10</v>
       </c>
       <c r="E202" s="3">
         <v>3</v>
       </c>
       <c r="F202" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G202" s="14"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>202</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D203">
-        <v>10</v>
+      <c r="B203" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C203" t="s">
+        <v>346</v>
+      </c>
+      <c r="D203" s="13">
+        <v>15</v>
       </c>
       <c r="E203" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F203" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G203" s="14"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>203</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D204">
-        <v>20</v>
+        <v>288</v>
+      </c>
+      <c r="C204" t="s">
+        <v>347</v>
+      </c>
+      <c r="D204" s="13">
+        <v>15</v>
       </c>
       <c r="E204" s="3">
         <v>3</v>
       </c>
       <c r="F204" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G204" s="14"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>204</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D205">
-        <v>10</v>
+        <v>421</v>
+      </c>
+      <c r="C205" t="s">
+        <v>422</v>
+      </c>
+      <c r="D205" s="13">
+        <v>25</v>
       </c>
       <c r="E205" s="3">
         <v>3</v>
       </c>
       <c r="F205" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G205" s="14"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>205</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D206">
-        <v>15</v>
+        <v>289</v>
+      </c>
+      <c r="D206" s="13">
+        <v>17</v>
       </c>
       <c r="E206" s="3">
         <v>3</v>
       </c>
       <c r="F206" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G206" s="14"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>206</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D207">
-        <v>10</v>
+        <v>290</v>
+      </c>
+      <c r="D207" s="13">
+        <v>7</v>
       </c>
       <c r="E207" s="3">
         <v>3</v>
       </c>
       <c r="F207" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G207" s="14"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D208">
+        <v>291</v>
+      </c>
+      <c r="D208" s="13">
         <v>10</v>
       </c>
       <c r="E208" s="3">
         <v>3</v>
       </c>
       <c r="F208" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G208" s="14"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>208</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D209">
-        <v>15</v>
+        <v>292</v>
+      </c>
+      <c r="D209" s="13">
+        <v>45</v>
       </c>
       <c r="E209" s="3">
         <v>3</v>
       </c>
       <c r="F209" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G209" s="14"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>209</v>
       </c>
-      <c r="B210" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D210">
-        <v>15</v>
+      <c r="B210" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D210" s="13">
+        <v>10</v>
       </c>
       <c r="E210" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F210" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G210" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>210</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D211">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="D211" s="13">
+        <v>20</v>
       </c>
       <c r="E211" s="3">
         <v>3</v>
       </c>
       <c r="F211" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G211" s="14"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>211</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D212">
+        <v>294</v>
+      </c>
+      <c r="D212" s="13">
         <v>10</v>
       </c>
       <c r="E212" s="3">
@@ -7272,16 +8415,17 @@
       <c r="F212" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G212" s="14"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>212</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D213">
-        <v>10</v>
+        <v>295</v>
+      </c>
+      <c r="D213" s="13">
+        <v>15</v>
       </c>
       <c r="E213" s="3">
         <v>3</v>
@@ -7289,15 +8433,16 @@
       <c r="F213" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G213" s="14"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>213</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D214">
+        <v>296</v>
+      </c>
+      <c r="D214" s="13">
         <v>10</v>
       </c>
       <c r="E214" s="3">
@@ -7306,19 +8451,17 @@
       <c r="F214" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G214" s="14"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>214</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C215" t="s">
-        <v>415</v>
-      </c>
-      <c r="D215">
-        <v>2</v>
+        <v>297</v>
+      </c>
+      <c r="D215" s="13">
+        <v>10</v>
       </c>
       <c r="E215" s="3">
         <v>3</v>
@@ -7326,19 +8469,17 @@
       <c r="F215" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G215" s="14"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>215</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C216" t="s">
-        <v>416</v>
-      </c>
-      <c r="D216">
-        <v>2</v>
+        <v>298</v>
+      </c>
+      <c r="D216" s="13">
+        <v>15</v>
       </c>
       <c r="E216" s="3">
         <v>3</v>
@@ -7346,28 +8487,17 @@
       <c r="F216" s="3">
         <v>20</v>
       </c>
-      <c r="P216" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>354</v>
-      </c>
-      <c r="T216">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G216" s="14"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>216</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C217" t="s">
-        <v>417</v>
-      </c>
-      <c r="D217">
-        <v>2</v>
+        <v>299</v>
+      </c>
+      <c r="D217" s="13">
+        <v>15</v>
       </c>
       <c r="E217" s="3">
         <v>3</v>
@@ -7375,28 +8505,17 @@
       <c r="F217" s="3">
         <v>20</v>
       </c>
-      <c r="P217" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>375</v>
-      </c>
-      <c r="T217">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G217" s="14"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>217</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C218" t="s">
-        <v>418</v>
-      </c>
-      <c r="D218">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="D218" s="13">
+        <v>10</v>
       </c>
       <c r="E218" s="3">
         <v>3</v>
@@ -7404,28 +8523,17 @@
       <c r="F218" s="3">
         <v>20</v>
       </c>
-      <c r="P218" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>376</v>
-      </c>
-      <c r="T218">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G218" s="14"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>218</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C219" t="s">
-        <v>419</v>
-      </c>
-      <c r="D219">
-        <v>2</v>
+        <v>301</v>
+      </c>
+      <c r="D219" s="13">
+        <v>10</v>
       </c>
       <c r="E219" s="3">
         <v>3</v>
@@ -7433,28 +8541,17 @@
       <c r="F219" s="3">
         <v>20</v>
       </c>
-      <c r="P219" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q219" t="s">
-        <v>377</v>
-      </c>
-      <c r="T219">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G219" s="14"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>219</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C220" t="s">
-        <v>415</v>
-      </c>
-      <c r="D220">
-        <v>2</v>
+        <v>302</v>
+      </c>
+      <c r="D220" s="13">
+        <v>10</v>
       </c>
       <c r="E220" s="3">
         <v>3</v>
@@ -7462,28 +8559,17 @@
       <c r="F220" s="3">
         <v>20</v>
       </c>
-      <c r="P220" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>378</v>
-      </c>
-      <c r="T220">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G220" s="14"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>220</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C221" t="s">
-        <v>420</v>
-      </c>
-      <c r="D221">
-        <v>2</v>
+        <v>303</v>
+      </c>
+      <c r="D221" s="13">
+        <v>10</v>
       </c>
       <c r="E221" s="3">
         <v>3</v>
@@ -7491,27 +8577,19 @@
       <c r="F221" s="3">
         <v>20</v>
       </c>
-      <c r="P221" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>379</v>
-      </c>
-      <c r="T221">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G221" s="14"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>221</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C222" t="s">
-        <v>421</v>
-      </c>
-      <c r="D222">
+        <v>409</v>
+      </c>
+      <c r="D222" s="13">
         <v>2</v>
       </c>
       <c r="E222" s="3">
@@ -7520,27 +8598,19 @@
       <c r="F222" s="3">
         <v>20</v>
       </c>
-      <c r="P222" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q222" t="s">
-        <v>380</v>
-      </c>
-      <c r="T222">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G222" s="14"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>222</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C223" t="s">
-        <v>422</v>
-      </c>
-      <c r="D223">
+        <v>410</v>
+      </c>
+      <c r="D223" s="13">
         <v>2</v>
       </c>
       <c r="E223" s="3">
@@ -7549,27 +8619,19 @@
       <c r="F223" s="3">
         <v>20</v>
       </c>
-      <c r="P223" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>381</v>
-      </c>
-      <c r="T223">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G223" s="14"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>223</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C224" t="s">
-        <v>423</v>
-      </c>
-      <c r="D224">
+        <v>411</v>
+      </c>
+      <c r="D224" s="13">
         <v>2</v>
       </c>
       <c r="E224" s="3">
@@ -7578,27 +8640,19 @@
       <c r="F224" s="3">
         <v>20</v>
       </c>
-      <c r="P224" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>382</v>
-      </c>
-      <c r="T224">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G224" s="14"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>224</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C225" t="s">
-        <v>424</v>
-      </c>
-      <c r="D225">
+        <v>412</v>
+      </c>
+      <c r="D225" s="13">
         <v>2</v>
       </c>
       <c r="E225" s="3">
@@ -7607,27 +8661,19 @@
       <c r="F225" s="3">
         <v>20</v>
       </c>
-      <c r="P225" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>384</v>
-      </c>
-      <c r="T225">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G225" s="14"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>225</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C226" t="s">
-        <v>425</v>
-      </c>
-      <c r="D226">
+        <v>413</v>
+      </c>
+      <c r="D226" s="13">
         <v>2</v>
       </c>
       <c r="E226" s="3">
@@ -7636,54 +8682,62 @@
       <c r="F226" s="3">
         <v>20</v>
       </c>
-      <c r="P226" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>385</v>
-      </c>
-      <c r="T226">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G226" s="14"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>226</v>
       </c>
-      <c r="B227" s="10"/>
-      <c r="P227" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>386</v>
-      </c>
-      <c r="T227">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B227" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C227" t="s">
+        <v>409</v>
+      </c>
+      <c r="D227" s="13">
+        <v>2</v>
+      </c>
+      <c r="E227" s="3">
+        <v>3</v>
+      </c>
+      <c r="F227" s="3">
+        <v>20</v>
+      </c>
+      <c r="G227" s="14"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>227</v>
       </c>
-      <c r="P228" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>387</v>
-      </c>
-      <c r="T228">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B228" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C228" t="s">
+        <v>414</v>
+      </c>
+      <c r="D228" s="13">
+        <v>2</v>
+      </c>
+      <c r="E228" s="3">
+        <v>3</v>
+      </c>
+      <c r="F228" s="3">
+        <v>20</v>
+      </c>
+      <c r="G228" s="14"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>228</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D229">
-        <v>5</v>
+        <v>404</v>
+      </c>
+      <c r="C229" t="s">
+        <v>415</v>
+      </c>
+      <c r="D229" s="13">
+        <v>2</v>
       </c>
       <c r="E229" s="3">
         <v>3</v>
@@ -7691,25 +8745,20 @@
       <c r="F229" s="3">
         <v>20</v>
       </c>
-      <c r="P229" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q229" t="s">
-        <v>388</v>
-      </c>
-      <c r="T229">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G229" s="14"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>229</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D230">
-        <v>3</v>
+        <v>405</v>
+      </c>
+      <c r="C230" t="s">
+        <v>416</v>
+      </c>
+      <c r="D230" s="13">
+        <v>2</v>
       </c>
       <c r="E230" s="3">
         <v>3</v>
@@ -7717,25 +8766,20 @@
       <c r="F230" s="3">
         <v>20</v>
       </c>
-      <c r="P230" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q230" t="s">
-        <v>389</v>
-      </c>
-      <c r="T230">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G230" s="14"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>230</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D231">
-        <v>3</v>
+        <v>406</v>
+      </c>
+      <c r="C231" t="s">
+        <v>417</v>
+      </c>
+      <c r="D231" s="13">
+        <v>2</v>
       </c>
       <c r="E231" s="3">
         <v>3</v>
@@ -7743,25 +8787,20 @@
       <c r="F231" s="3">
         <v>20</v>
       </c>
-      <c r="P231" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q231" t="s">
-        <v>390</v>
-      </c>
-      <c r="T231">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G231" s="14"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>231</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D232">
-        <v>5</v>
+        <v>407</v>
+      </c>
+      <c r="C232" t="s">
+        <v>418</v>
+      </c>
+      <c r="D232" s="13">
+        <v>2</v>
       </c>
       <c r="E232" s="3">
         <v>3</v>
@@ -7769,25 +8808,20 @@
       <c r="F232" s="3">
         <v>20</v>
       </c>
-      <c r="P232" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q232" t="s">
-        <v>391</v>
-      </c>
-      <c r="T232">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G232" s="14"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>232</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D233">
-        <v>3</v>
+        <v>408</v>
+      </c>
+      <c r="C233" t="s">
+        <v>419</v>
+      </c>
+      <c r="D233" s="13">
+        <v>2</v>
       </c>
       <c r="E233" s="3">
         <v>3</v>
@@ -7795,25 +8829,17 @@
       <c r="F233" s="3">
         <v>20</v>
       </c>
-      <c r="P233" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q233" t="s">
-        <v>392</v>
-      </c>
-      <c r="T233">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G233" s="14"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>233</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D234">
-        <v>7</v>
+        <v>304</v>
+      </c>
+      <c r="D234" s="13">
+        <v>5</v>
       </c>
       <c r="E234" s="3">
         <v>3</v>
@@ -7821,25 +8847,17 @@
       <c r="F234" s="3">
         <v>20</v>
       </c>
-      <c r="P234" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>383</v>
-      </c>
-      <c r="T234">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G234" s="14"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>234</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D235">
-        <v>10</v>
+        <v>305</v>
+      </c>
+      <c r="D235" s="13">
+        <v>3</v>
       </c>
       <c r="E235" s="3">
         <v>3</v>
@@ -7847,25 +8865,17 @@
       <c r="F235" s="3">
         <v>20</v>
       </c>
-      <c r="P235" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>374</v>
-      </c>
-      <c r="T235">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G235" s="14"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>235</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D236">
-        <v>5</v>
+        <v>306</v>
+      </c>
+      <c r="D236" s="13">
+        <v>3</v>
       </c>
       <c r="E236" s="3">
         <v>3</v>
@@ -7873,25 +8883,17 @@
       <c r="F236" s="3">
         <v>20</v>
       </c>
-      <c r="P236" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q236" t="s">
-        <v>393</v>
-      </c>
-      <c r="T236">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G236" s="14"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>236</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D237">
-        <v>7</v>
+        <v>307</v>
+      </c>
+      <c r="D237" s="13">
+        <v>5</v>
       </c>
       <c r="E237" s="3">
         <v>3</v>
@@ -7899,22 +8901,17 @@
       <c r="F237" s="3">
         <v>20</v>
       </c>
-      <c r="P237" t="s">
-        <v>394</v>
-      </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G237" s="14"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>237</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D238">
-        <v>10</v>
+        <v>308</v>
+      </c>
+      <c r="D238" s="13">
+        <v>3</v>
       </c>
       <c r="E238" s="3">
         <v>3</v>
@@ -7922,25 +8919,17 @@
       <c r="F238" s="3">
         <v>20</v>
       </c>
-      <c r="P238" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q238" t="s">
-        <v>395</v>
-      </c>
-      <c r="T238">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G238" s="14"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D239">
-        <v>2</v>
+        <v>309</v>
+      </c>
+      <c r="D239" s="13">
+        <v>7</v>
       </c>
       <c r="E239" s="3">
         <v>3</v>
@@ -7948,25 +8937,17 @@
       <c r="F239" s="3">
         <v>20</v>
       </c>
-      <c r="P239" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q239" t="s">
-        <v>344</v>
-      </c>
-      <c r="T239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G239" s="14"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>239</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
+        <v>310</v>
+      </c>
+      <c r="D240" s="13">
+        <v>10</v>
       </c>
       <c r="E240" s="3">
         <v>3</v>
@@ -7974,22 +8955,17 @@
       <c r="F240" s="3">
         <v>20</v>
       </c>
-      <c r="P240" t="s">
-        <v>398</v>
-      </c>
-      <c r="T240">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G240" s="14"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>240</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D241">
-        <v>10</v>
+        <v>311</v>
+      </c>
+      <c r="D241" s="13">
+        <v>5</v>
       </c>
       <c r="E241" s="3">
         <v>3</v>
@@ -7997,45 +8973,32 @@
       <c r="F241" s="3">
         <v>20</v>
       </c>
-      <c r="P241" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q241" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G241" s="14"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>241</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D242" s="13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E242" s="3">
         <v>3</v>
       </c>
       <c r="F242" s="3">
-        <v>21</v>
-      </c>
-      <c r="P242" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q242" t="s">
-        <v>402</v>
-      </c>
-      <c r="T242">
         <v>20</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G242" s="14"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>242</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="D243" s="13">
         <v>10</v>
@@ -8044,402 +9007,1021 @@
         <v>3</v>
       </c>
       <c r="F243" s="3">
-        <v>21</v>
-      </c>
-      <c r="P243" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="T243">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G243" s="14"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>243</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D244">
-        <v>15</v>
+        <v>314</v>
+      </c>
+      <c r="D244" s="13">
+        <v>2</v>
       </c>
       <c r="E244" s="3">
         <v>3</v>
       </c>
       <c r="F244" s="3">
-        <v>21</v>
-      </c>
-      <c r="P244" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G244" s="14"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>244</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D245">
-        <v>10</v>
+        <v>315</v>
+      </c>
+      <c r="D245" s="13">
+        <v>1</v>
       </c>
       <c r="E245" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F245" s="3">
-        <v>21</v>
-      </c>
-      <c r="P245" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="T245">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G245" s="14"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>245</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D246">
+        <v>316</v>
+      </c>
+      <c r="D246" s="13">
+        <v>10</v>
+      </c>
+      <c r="E246" s="3">
+        <v>3</v>
+      </c>
+      <c r="F246" s="3">
+        <v>20</v>
+      </c>
+      <c r="G246" s="14"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>246</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D247" s="13">
+        <v>10</v>
+      </c>
+      <c r="E247" s="3">
+        <v>3</v>
+      </c>
+      <c r="F247" s="3">
+        <v>21</v>
+      </c>
+      <c r="G247" s="14"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>247</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D248" s="13">
+        <v>10</v>
+      </c>
+      <c r="E248" s="3">
+        <v>3</v>
+      </c>
+      <c r="F248" s="3">
+        <v>21</v>
+      </c>
+      <c r="G248" s="14"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>248</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C249" t="s">
+        <v>472</v>
+      </c>
+      <c r="D249" s="13">
+        <v>15</v>
+      </c>
+      <c r="E249" s="3">
+        <v>3</v>
+      </c>
+      <c r="F249" s="3">
+        <v>21</v>
+      </c>
+      <c r="G249" s="14"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>249</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="D250" s="27">
+        <v>10</v>
+      </c>
+      <c r="E250" s="28">
+        <v>1</v>
+      </c>
+      <c r="F250" s="28">
+        <v>21</v>
+      </c>
+      <c r="G250" s="14"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>250</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C251" t="s">
+        <v>117</v>
+      </c>
+      <c r="D251" s="13">
+        <v>15</v>
+      </c>
+      <c r="E251" s="3">
+        <v>3</v>
+      </c>
+      <c r="F251" s="3">
+        <v>21</v>
+      </c>
+      <c r="G251" s="14"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>251</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D252" s="13">
         <v>45</v>
       </c>
-      <c r="E246" s="3">
-        <v>3</v>
-      </c>
-      <c r="F246" s="3">
-        <v>22</v>
-      </c>
-      <c r="P246" s="19" t="s">
+      <c r="E252" s="3">
+        <v>3</v>
+      </c>
+      <c r="F252" s="3">
+        <v>12</v>
+      </c>
+      <c r="G252" s="14"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>252</v>
+      </c>
+      <c r="B253" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="T246">
+      <c r="D253" s="13">
+        <v>28</v>
+      </c>
+      <c r="E253" s="3">
+        <v>3</v>
+      </c>
+      <c r="F253" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B247" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D247">
-        <v>28</v>
-      </c>
-      <c r="E247" s="3">
-        <v>3</v>
-      </c>
-      <c r="F247" s="3">
-        <v>22</v>
-      </c>
-      <c r="P247" t="s">
+      <c r="G253" s="14"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>253</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C254" t="s">
+        <v>348</v>
+      </c>
+      <c r="D254" s="13">
+        <v>15</v>
+      </c>
+      <c r="E254" s="3">
+        <v>3</v>
+      </c>
+      <c r="F254" s="3">
+        <v>17</v>
+      </c>
+      <c r="G254" s="14"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>254</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D255" s="13">
+        <v>6</v>
+      </c>
+      <c r="E255" s="3">
+        <v>3</v>
+      </c>
+      <c r="F255" s="3">
+        <v>12</v>
+      </c>
+      <c r="G255" s="14"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>349</v>
+      </c>
+      <c r="C256" t="s">
+        <v>350</v>
+      </c>
+      <c r="D256" s="13">
+        <v>10</v>
+      </c>
+      <c r="E256" s="3">
+        <v>3</v>
+      </c>
+      <c r="F256" s="3">
+        <v>11</v>
+      </c>
+      <c r="G256" s="14"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>351</v>
+      </c>
+      <c r="C257" t="s">
+        <v>371</v>
+      </c>
+      <c r="D257" s="13">
+        <v>5</v>
+      </c>
+      <c r="E257" s="3">
+        <v>3</v>
+      </c>
+      <c r="F257" s="3">
+        <v>25</v>
+      </c>
+      <c r="G257" s="14"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>352</v>
+      </c>
+      <c r="C258" t="s">
+        <v>372</v>
+      </c>
+      <c r="D258" s="13">
+        <v>5</v>
+      </c>
+      <c r="E258" s="3">
+        <v>3</v>
+      </c>
+      <c r="F258" s="3">
+        <v>25</v>
+      </c>
+      <c r="G258" s="14"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>353</v>
+      </c>
+      <c r="C259" t="s">
+        <v>373</v>
+      </c>
+      <c r="D259" s="13">
+        <v>5</v>
+      </c>
+      <c r="E259" s="3">
+        <v>3</v>
+      </c>
+      <c r="F259" s="3">
+        <v>25</v>
+      </c>
+      <c r="G259" s="14"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>354</v>
+      </c>
+      <c r="C260" t="s">
+        <v>374</v>
+      </c>
+      <c r="D260" s="13">
+        <v>5</v>
+      </c>
+      <c r="E260" s="3">
+        <v>3</v>
+      </c>
+      <c r="F260" s="3">
+        <v>25</v>
+      </c>
+      <c r="G260" s="14"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>355</v>
+      </c>
+      <c r="C261" t="s">
+        <v>375</v>
+      </c>
+      <c r="D261" s="13">
+        <v>5</v>
+      </c>
+      <c r="E261" s="3">
+        <v>3</v>
+      </c>
+      <c r="F261" s="3">
+        <v>25</v>
+      </c>
+      <c r="G261" s="14"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>356</v>
+      </c>
+      <c r="C262" t="s">
+        <v>376</v>
+      </c>
+      <c r="D262" s="13">
+        <v>5</v>
+      </c>
+      <c r="E262" s="3">
+        <v>3</v>
+      </c>
+      <c r="F262" s="3">
+        <v>25</v>
+      </c>
+      <c r="G262" s="14"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>357</v>
+      </c>
+      <c r="C263" t="s">
+        <v>377</v>
+      </c>
+      <c r="D263" s="13">
+        <v>5</v>
+      </c>
+      <c r="E263" s="3">
+        <v>3</v>
+      </c>
+      <c r="F263" s="3">
+        <v>25</v>
+      </c>
+      <c r="G263" s="14"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>358</v>
+      </c>
+      <c r="C264" t="s">
+        <v>378</v>
+      </c>
+      <c r="D264" s="13">
+        <v>5</v>
+      </c>
+      <c r="E264" s="3">
+        <v>3</v>
+      </c>
+      <c r="F264" s="3">
+        <v>25</v>
+      </c>
+      <c r="G264" s="14"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>359</v>
+      </c>
+      <c r="C265" t="s">
+        <v>380</v>
+      </c>
+      <c r="D265" s="13">
+        <v>10</v>
+      </c>
+      <c r="E265" s="3">
+        <v>3</v>
+      </c>
+      <c r="F265" s="3">
+        <v>25</v>
+      </c>
+      <c r="G265" s="14"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>360</v>
+      </c>
+      <c r="C266" t="s">
+        <v>381</v>
+      </c>
+      <c r="D266" s="13">
+        <v>10</v>
+      </c>
+      <c r="E266" s="3">
+        <v>3</v>
+      </c>
+      <c r="F266" s="3">
+        <v>25</v>
+      </c>
+      <c r="G266" s="14"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>361</v>
+      </c>
+      <c r="C267" t="s">
+        <v>382</v>
+      </c>
+      <c r="D267" s="13">
+        <v>10</v>
+      </c>
+      <c r="E267" s="3">
+        <v>3</v>
+      </c>
+      <c r="F267" s="3">
+        <v>25</v>
+      </c>
+      <c r="G267" s="14"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>362</v>
+      </c>
+      <c r="C268" t="s">
+        <v>383</v>
+      </c>
+      <c r="D268" s="13">
+        <v>10</v>
+      </c>
+      <c r="E268" s="3">
+        <v>3</v>
+      </c>
+      <c r="F268" s="3">
+        <v>25</v>
+      </c>
+      <c r="G268" s="14"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>363</v>
+      </c>
+      <c r="C269" t="s">
+        <v>384</v>
+      </c>
+      <c r="D269" s="13">
+        <v>10</v>
+      </c>
+      <c r="E269" s="3">
+        <v>3</v>
+      </c>
+      <c r="F269" s="3">
+        <v>25</v>
+      </c>
+      <c r="G269" s="14"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>364</v>
+      </c>
+      <c r="C270" t="s">
+        <v>385</v>
+      </c>
+      <c r="D270" s="13">
+        <v>10</v>
+      </c>
+      <c r="E270" s="3">
+        <v>3</v>
+      </c>
+      <c r="F270" s="3">
+        <v>25</v>
+      </c>
+      <c r="G270" s="14"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>365</v>
+      </c>
+      <c r="C271" t="s">
+        <v>386</v>
+      </c>
+      <c r="D271" s="13">
+        <v>10</v>
+      </c>
+      <c r="E271" s="3">
+        <v>3</v>
+      </c>
+      <c r="F271" s="3">
+        <v>25</v>
+      </c>
+      <c r="G271" s="14"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>366</v>
+      </c>
+      <c r="C272" t="s">
+        <v>387</v>
+      </c>
+      <c r="D272" s="13">
+        <v>10</v>
+      </c>
+      <c r="E272" s="3">
+        <v>3</v>
+      </c>
+      <c r="F272" s="3">
+        <v>25</v>
+      </c>
+      <c r="G272" s="14"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>367</v>
+      </c>
+      <c r="C273" t="s">
+        <v>388</v>
+      </c>
+      <c r="D273" s="13">
+        <v>10</v>
+      </c>
+      <c r="E273" s="3">
+        <v>3</v>
+      </c>
+      <c r="F273" s="3">
+        <v>25</v>
+      </c>
+      <c r="G273" s="14"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>368</v>
+      </c>
+      <c r="C274" t="s">
+        <v>379</v>
+      </c>
+      <c r="D274" s="13">
+        <v>20</v>
+      </c>
+      <c r="E274" s="3">
+        <v>3</v>
+      </c>
+      <c r="F274" s="3">
+        <v>25</v>
+      </c>
+      <c r="G274" s="14"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>369</v>
+      </c>
+      <c r="C275" t="s">
+        <v>370</v>
+      </c>
+      <c r="D275" s="13">
+        <v>15</v>
+      </c>
+      <c r="E275" s="3">
+        <v>3</v>
+      </c>
+      <c r="F275" s="3">
+        <v>25</v>
+      </c>
+      <c r="G275" s="14"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>165</v>
+      </c>
+      <c r="C276" t="s">
+        <v>389</v>
+      </c>
+      <c r="D276" s="13">
+        <v>10</v>
+      </c>
+      <c r="E276" s="3">
+        <v>3</v>
+      </c>
+      <c r="F276" s="20"/>
+      <c r="G276" s="14"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>390</v>
+      </c>
+      <c r="D277" s="13">
+        <v>3</v>
+      </c>
+      <c r="E277" s="3">
+        <v>3</v>
+      </c>
+      <c r="F277" s="20"/>
+      <c r="G277" s="14"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>392</v>
+      </c>
+      <c r="C278" t="s">
+        <v>391</v>
+      </c>
+      <c r="D278" s="13">
+        <v>5</v>
+      </c>
+      <c r="E278" s="3">
+        <v>3</v>
+      </c>
+      <c r="F278" s="20"/>
+      <c r="G278" s="14"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>393</v>
+      </c>
+      <c r="C279" t="s">
+        <v>340</v>
+      </c>
+      <c r="D279" s="13">
+        <v>1</v>
+      </c>
+      <c r="E279" s="3">
+        <v>3</v>
+      </c>
+      <c r="F279" s="20"/>
+      <c r="G279" s="14"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>394</v>
+      </c>
+      <c r="D280" s="13">
+        <v>33</v>
+      </c>
+      <c r="E280" s="3">
+        <v>3</v>
+      </c>
+      <c r="F280" s="3">
+        <v>9</v>
+      </c>
+      <c r="G280" s="14"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>395</v>
+      </c>
+      <c r="C281" t="s">
+        <v>396</v>
+      </c>
+      <c r="D281" s="13">
+        <v>20</v>
+      </c>
+      <c r="E281" s="3">
+        <v>3</v>
+      </c>
+      <c r="F281" s="3">
+        <v>26</v>
+      </c>
+      <c r="G281" s="14"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>281</v>
+      </c>
+      <c r="B282" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D282" s="13">
+        <v>15</v>
+      </c>
+      <c r="E282" s="3">
+        <v>3</v>
+      </c>
+      <c r="F282" s="3">
+        <v>19</v>
+      </c>
+      <c r="G282" s="14"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>282</v>
+      </c>
+      <c r="B283" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D283" s="13">
+        <v>15</v>
+      </c>
+      <c r="E283" s="3">
+        <v>3</v>
+      </c>
+      <c r="F283" s="3">
+        <v>26</v>
+      </c>
+      <c r="G283" s="14"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>283</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D284" s="13">
+        <v>33</v>
+      </c>
+      <c r="E284" s="3">
+        <v>5</v>
+      </c>
+      <c r="F284" s="3">
+        <v>26</v>
+      </c>
+      <c r="G284" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>423</v>
+      </c>
+      <c r="D285" s="13">
+        <v>10</v>
+      </c>
+      <c r="E285" s="3">
+        <v>3</v>
+      </c>
+      <c r="F285" s="3">
+        <v>23</v>
+      </c>
+      <c r="G285" s="14"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>424</v>
+      </c>
+      <c r="D286" s="13">
+        <v>100</v>
+      </c>
+      <c r="E286" s="3">
+        <v>3</v>
+      </c>
+      <c r="F286" s="3">
+        <v>23</v>
+      </c>
+      <c r="G286" s="14"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>425</v>
+      </c>
+      <c r="C287" t="s">
+        <v>426</v>
+      </c>
+      <c r="D287" s="13">
+        <v>20</v>
+      </c>
+      <c r="E287" s="3">
+        <v>3</v>
+      </c>
+      <c r="F287" s="3">
+        <v>23</v>
+      </c>
+      <c r="G287" s="14"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>425</v>
+      </c>
+      <c r="C288" t="s">
+        <v>427</v>
+      </c>
+      <c r="D288" s="13">
+        <v>20</v>
+      </c>
+      <c r="E288" s="3">
+        <v>3</v>
+      </c>
+      <c r="F288" s="3">
+        <v>23</v>
+      </c>
+      <c r="G288" s="14"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>288</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C289" t="s">
+        <v>430</v>
+      </c>
+      <c r="D289" s="13">
+        <v>15</v>
+      </c>
+      <c r="E289" s="3">
+        <v>5</v>
+      </c>
+      <c r="F289" s="3">
+        <v>23</v>
+      </c>
+      <c r="G289" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
         <v>429</v>
       </c>
-      <c r="T247">
+      <c r="C290" t="s">
+        <v>431</v>
+      </c>
+      <c r="D290" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B248" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C248" t="s">
-        <v>352</v>
-      </c>
-      <c r="D248">
-        <v>15</v>
-      </c>
-      <c r="E248" s="3">
-        <v>3</v>
-      </c>
-      <c r="F248" s="3">
-        <v>22</v>
-      </c>
-      <c r="P248" t="s">
-        <v>430</v>
-      </c>
-      <c r="T248">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B249" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="D249">
-        <v>6</v>
-      </c>
-      <c r="E249" s="3">
-        <v>3</v>
-      </c>
-      <c r="F249" s="3">
-        <v>12</v>
-      </c>
-      <c r="P249" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q249" t="s">
+      <c r="E290" s="3">
+        <v>3</v>
+      </c>
+      <c r="F290" s="3">
+        <v>23</v>
+      </c>
+      <c r="G290" s="14"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
         <v>432</v>
       </c>
-      <c r="T249">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E250" s="3">
-        <v>3</v>
-      </c>
-      <c r="P250" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q250" t="s">
+      <c r="D291" s="13">
+        <v>30</v>
+      </c>
+      <c r="E291" s="3">
+        <v>3</v>
+      </c>
+      <c r="F291" s="3">
+        <v>23</v>
+      </c>
+      <c r="G291" s="14"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
         <v>433</v>
       </c>
-      <c r="T250">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E251" s="3">
-        <v>3</v>
-      </c>
-      <c r="P251" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q251" t="s">
-        <v>436</v>
-      </c>
-      <c r="T251">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E252" s="3">
-        <v>3</v>
-      </c>
-      <c r="P252" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q252" t="s">
-        <v>437</v>
-      </c>
-      <c r="T252">
+      <c r="D292" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E253" s="3">
-        <v>3</v>
-      </c>
-      <c r="P253" t="s">
-        <v>438</v>
-      </c>
-      <c r="T253">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E254" s="3">
-        <v>3</v>
-      </c>
-      <c r="P254" t="s">
-        <v>439</v>
-      </c>
-      <c r="T254">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E255" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E256" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E257" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E258" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E259" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E260" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E261" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E262" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E263" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E264" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E265" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E266" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E267" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E268" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E269" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E270" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E271" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E272" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E273" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E274" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E275" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E276" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E277" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E278" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E279" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E280" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E281" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E282" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E283" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E284" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E285" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E286" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E287" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E288" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E289" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E290" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E291" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E292" s="3">
         <v>3</v>
       </c>
+      <c r="F292" s="3">
+        <v>23</v>
+      </c>
+      <c r="G292" s="14"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>473</v>
+      </c>
+      <c r="D293" s="13">
+        <v>25</v>
+      </c>
+      <c r="E293" s="3">
+        <v>5</v>
+      </c>
+      <c r="F293" s="3">
+        <v>2</v>
+      </c>
+      <c r="G293" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D294" s="13"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D295" s="13"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D296" s="13"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D297" s="13">
+        <f>SUM(D1:D296)</f>
+        <v>2459.5</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA293" xr:uid="{1160E697-8C84-B54D-9BF6-A4848DBA429A}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
